--- a/First_Capstone/report/metrics.xlsx
+++ b/First_Capstone/report/metrics.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Neha/Study/DS/SpringBoard/DataScience/First_Capstone/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB180509-BECA-794F-8104-D2B73B9971E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA67BD74-F8B8-E248-B3B4-87C99805C94E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" activeTab="2" xr2:uid="{3DDA8872-7CDB-EA41-B5FA-BA396E0654D4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{3DDA8872-7CDB-EA41-B5FA-BA396E0654D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -219,13 +218,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="1"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,20 +285,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -307,6 +307,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,896 +632,902 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C59A229-8AA4-BA47-9533-C2933279BD75}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:H26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.1640625" style="2"/>
+    <col min="1" max="1" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="7" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="7"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>55690</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>55690</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.66986999999999997</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.76</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>0.76</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>0.73</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>0.75614000000000003</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>0.66103999999999996</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>0.75736999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>55690</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>55690</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.67156000000000005</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.76</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>0.76</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>0.73</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>0.75548999999999999</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>0.66273000000000004</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>0.75707999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>55690</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>55690</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.63743000000000005</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.76</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>0.76</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>0.75</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>0.76471</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>0.62487000000000004</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>0.76719000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>55690</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>55690</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.67034000000000005</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.76</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>0.76</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>0.73</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>0.75500999999999996</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>0.66161999999999999</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>0.75729999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>55690</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>55690</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.63614000000000004</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>0.76</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>0.77</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>0.75</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>0.76568000000000003</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>0.62094000000000005</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>0.76785999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>130590</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.79605000000000004</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>0.77</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>0.71</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>0.73</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>0.71057000000000003</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>0.74829999999999997</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <v>0.73602999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>131124</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.67974999999999997</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>0.76</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>0.76</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>0.73</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>0.75663000000000002</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>0.65856000000000003</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <v>0.75970000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>131124</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>0.83479999999999999</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>0.75</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>0.69</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>0.7</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>0.68713999999999997</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>0.81283000000000005</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="2">
         <v>0.69154000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>130590</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>0.78491999999999995</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>0.77</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>0.71</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>0.72</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>0.70813999999999999</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <v>0.76568999999999998</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="2">
         <v>0.71353999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>15624</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>0.99595</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>0.76</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>0.59</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>0.62</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>0.58758999999999995</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <v>0.97031000000000001</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="2">
         <v>0.59223999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>15624</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>0.81376000000000004</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>0.77</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>0.71</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>0.73</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>0.71201999999999999</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <v>0.79893999999999998</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="2">
         <v>0.71423999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>15624</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>2.3554400000000002</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>0.79</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>0.63</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>0.7</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>0.54944999999999999</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>2.37182</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="2">
         <v>0.53974</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>15624</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>1.0300199999999999</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>0.72</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>0.59</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>0.57142999999999999</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>1.0190900000000001</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="2">
         <v>0.57298000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>11781</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>0.89183000000000001</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>0.72</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>0.7</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>0.71</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>0.70023000000000002</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>0.88521000000000005</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="2">
         <v>0.69962000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>32804</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>0.82391000000000003</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>0.76</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>0.75</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>0.73</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>0.75209999999999999</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>0.81867000000000001</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="2">
         <v>0.75139</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>15624</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>1.91493</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>0.72</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>0.7</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>0.71</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>0.52666000000000002</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="2">
         <v>1.8704799999999999</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="2">
         <v>0.52932000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>110862</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>1.07592</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>0.78</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>0.64</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>0.65</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <v>0.63849</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="2">
         <v>1.0515000000000001</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="2">
         <v>0.64387000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>0.73284000000000005</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>0.76</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>0.75</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>0.75</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>0.75322999999999996</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="2">
         <v>0.72041999999999995</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="2">
         <v>0.75419000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>55690</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>0.67151000000000005</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>0.76</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>0.76</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>0.73</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>0.75532999999999995</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>0.94957000000000003</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>0.75</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>0.73</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>0.74</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>1.43225</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>0.77</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>0.77</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>0.77</v>
       </c>
-      <c r="L24" s="4"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>0.90412000000000003</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:14" ht="85" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>0.49743999999999999</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>3.4500899999999999</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>0.56515000000000004</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1524,217 +1539,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95347222-D5BA-0C4A-AAC1-2177164AEA1B}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.75736999999999999</v>
-      </c>
-      <c r="C2">
-        <v>0.75614000000000003</v>
-      </c>
-      <c r="D2">
-        <v>0.66103999999999996</v>
-      </c>
-      <c r="E2">
-        <v>0.66986999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.75707999999999998</v>
-      </c>
-      <c r="C3">
-        <v>0.75548999999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.66273000000000004</v>
-      </c>
-      <c r="E3">
-        <v>0.67156000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.76719000000000004</v>
-      </c>
-      <c r="C4">
-        <v>0.76471</v>
-      </c>
-      <c r="D4">
-        <v>0.62487000000000004</v>
-      </c>
-      <c r="E4">
-        <v>0.63743000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.75729999999999997</v>
-      </c>
-      <c r="C5">
-        <v>0.75500999999999996</v>
-      </c>
-      <c r="D5">
-        <v>0.66161999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.67034000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.76785999999999999</v>
-      </c>
-      <c r="C6">
-        <v>0.76568000000000003</v>
-      </c>
-      <c r="D6">
-        <v>0.62094000000000005</v>
-      </c>
-      <c r="E6">
-        <v>0.63614000000000004</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773D800A-0292-5F41-A83E-489A7C43C078}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+    <sheetView zoomScale="142" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.1640625" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>0.90412000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>0.49743999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>1.34294</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9">
+      <c r="B5" s="7"/>
+      <c r="C5" s="6">
         <v>1.89438</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>0.51783999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>3.4500899999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>0.56515000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>1.43225</v>
       </c>
     </row>
